--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -47,9 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>activity</t>
+  </si>
+  <si>
+    <t>dynamic</t>
   </si>
   <si>
     <t>int</t>
@@ -1131,7 +1134,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1139,14 +1142,24 @@
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="26.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
@@ -1154,101 +1167,95 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1261,11 +1268,15 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1278,11 +1289,21 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="1"/>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1298,8 +1319,14 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1315,8 +1342,20 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1332,8 +1371,14 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1349,8 +1394,14 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="I11" s="1">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1365,6 +1416,12 @@
       </c>
       <c r="E12" s="1">
         <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="活动配置" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>activity</t>
   </si>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1154,9 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,9 +1243,6 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1263,6 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="I6" s="1">
         <v>1</v>
       </c>
@@ -1289,7 +1283,6 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="I7" s="1">
         <v>3</v>
       </c>

--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670"/>
+    <workbookView windowWidth="31110" windowHeight="17595" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="活动配置" sheetId="2" r:id="rId1"/>
+    <sheet name="map" sheetId="2" r:id="rId1"/>
+    <sheet name="obj" sheetId="3" r:id="rId2"/>
+    <sheet name="array" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,12 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>activity</t>
   </si>
   <si>
-    <t>dynamic</t>
+    <t>默认输出map对象</t>
   </si>
   <si>
     <t>int</t>
@@ -98,12 +100,87 @@
   </si>
   <si>
     <t>时间格式</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>这里会生成一个Obj的对象</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>itemGroup</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>name6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -125,34 +202,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -169,6 +218,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -178,41 +266,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,7 +319,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,43 +372,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +504,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,21 +571,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +604,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,148 +677,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -751,10 +828,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,52 +849,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1133,120 +1210,119 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="26.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="26.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1257,16 +1333,16 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1277,22 +1353,22 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1303,19 +1379,19 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1326,25 +1402,25 @@
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>7</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1355,19 +1431,19 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1378,19 +1454,19 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>11</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1401,19 +1477,19 @@
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>13</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1440,4 +1516,231 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>600</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31110" windowHeight="17595" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>igg</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -202,6 +202,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -218,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -259,21 +295,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -319,28 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,24 +432,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,18 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,30 +492,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,24 +516,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +571,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,21 +619,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,148 +677,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -849,52 +849,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1208,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1235,103 +1235,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1340,17 +1356,23 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="2">
@@ -1359,25 +1381,22 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="K7" s="2">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
+      <c r="B8" s="5">
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1389,18 +1408,24 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
+      <c r="B9" s="4">
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1412,21 +1437,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1441,18 +1460,18 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1464,52 +1483,29 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2">
         <v>14</v>
       </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A4:B4">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B15">
+  <conditionalFormatting sqref="A13:B14">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8 A5:A12 A14:B15"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B7 A4:A11 A13:B14"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1626,7 +1622,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -15,41 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>igg</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>igg:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 //定制时间,注意时区 "2006-01-02 15:04:05-0700"
-2 //玩家注册的第几天, 1-第一天...</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>activity</t>
   </si>
@@ -66,6 +33,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>TType</t>
   </si>
   <si>
@@ -99,7 +69,31 @@
     <t>活动</t>
   </si>
   <si>
-    <t>时间格式</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>活动1</t>
+  </si>
+  <si>
+    <t>活动2</t>
+  </si>
+  <si>
+    <t>活动3</t>
+  </si>
+  <si>
+    <t>活动4</t>
+  </si>
+  <si>
+    <t>活动5</t>
+  </si>
+  <si>
+    <t>活动6</t>
+  </si>
+  <si>
+    <t>活动7</t>
   </si>
   <si>
     <t>base</t>
@@ -120,9 +114,6 @@
     <t>值</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>lv</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
   </si>
   <si>
     <t>测试</t>
-  </si>
-  <si>
-    <t>名称</t>
   </si>
   <si>
     <t>itemGroup</t>
@@ -187,7 +175,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,17 +332,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1208,41 +1185,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="26.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="6.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="26.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1272,18 +1250,21 @@
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1307,210 +1288,238 @@
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>8</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>9</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>11</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>13</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:B4">
+  <conditionalFormatting sqref="A4:C4">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B14">
+  <conditionalFormatting sqref="A13:C14">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B7 A4:A11 A13:B14"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B4 C7 A4:A11 A13:A14 B5:B11 B13:B14 C13:C14"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1520,20 +1529,20 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:1">
@@ -1546,63 +1555,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1623,17 +1632,20 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1652,21 +1664,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1677,7 +1689,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1688,7 +1700,7 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1699,7 +1711,7 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1710,7 +1722,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1721,7 +1733,7 @@
         <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1732,7 +1744,7 @@
         <v>600</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/demo/data/测试表.xlsx
+++ b/demo/data/测试表.xlsx
@@ -15,8 +15,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>igg</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>igg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 //定制时间,注意时区 "2006-01-02 15:04:05-0700"
+2 //玩家注册的第几天, 1-第一天...</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>activity</t>
   </si>
@@ -33,9 +66,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>TType</t>
   </si>
   <si>
@@ -69,73 +99,55 @@
     <t>活动</t>
   </si>
   <si>
+    <t>时间格式</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>这里会生成一个Obj的对象</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>活动1</t>
-  </si>
-  <si>
-    <t>活动2</t>
-  </si>
-  <si>
-    <t>活动3</t>
-  </si>
-  <si>
-    <t>活动4</t>
-  </si>
-  <si>
-    <t>活动5</t>
-  </si>
-  <si>
-    <t>活动6</t>
-  </si>
-  <si>
-    <t>活动7</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>这里会生成一个Obj的对象</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>lv</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>测试</t>
   </si>
   <si>
     <t>itemGroup</t>
@@ -175,7 +187,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +344,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1185,42 +1208,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="6.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="21.5" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="23" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="26.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="26.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1250,21 +1272,18 @@
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1288,238 +1307,210 @@
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
+      <c r="I6" s="2">
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L6" s="2">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="I7" s="2">
+        <v>5</v>
       </c>
       <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
         <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
+      <c r="I9" s="2">
+        <v>9</v>
       </c>
       <c r="J9" s="2">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
+      <c r="I10" s="2">
+        <v>11</v>
       </c>
       <c r="J10" s="2">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
+      <c r="I11" s="2">
+        <v>13</v>
       </c>
       <c r="J11" s="2">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:C4">
+  <conditionalFormatting sqref="A4:B4">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C14">
+  <conditionalFormatting sqref="A13:B14">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B4 C7 A4:A11 A13:A14 B5:B11 B13:B14 C13:C14"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B7 A4:A11 A13:B14"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1529,20 +1520,20 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:1">
@@ -1555,63 +1546,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1632,20 +1623,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1664,21 +1652,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1689,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1700,7 +1688,7 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1711,7 +1699,7 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1722,7 +1710,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1733,7 +1721,7 @@
         <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1744,7 +1732,7 @@
         <v>600</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
